--- a/excel/upload_smpmts.xlsx
+++ b/excel/upload_smpmts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ppdb2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ppdb2021\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,36 +24,1071 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
-  <si>
-    <t>SDN SUMBEREJO 09</t>
-  </si>
-  <si>
-    <t>JL. Moh hata</t>
-  </si>
-  <si>
-    <t>SDN SUMBEREJO 10</t>
-  </si>
-  <si>
-    <t>SDN SUMBEREJO 11</t>
-  </si>
-  <si>
-    <t>SDN SUMBEREJO 12</t>
-  </si>
-  <si>
-    <t>SDN SUMBEREJO 13</t>
-  </si>
-  <si>
-    <t>SDN SUMBEREJO 14</t>
-  </si>
-  <si>
-    <t>SDN SUMBEREJO 15</t>
-  </si>
-  <si>
-    <t>SDN SUMBEREJO 16</t>
-  </si>
-  <si>
-    <t>SDN SUMBEREJO 17</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="355">
+  <si>
+    <t>NPSN</t>
+  </si>
+  <si>
+    <t>NAMA LEMBAGA</t>
+  </si>
+  <si>
+    <t>ALAMAT</t>
+  </si>
+  <si>
+    <t> 69994773</t>
+  </si>
+  <si>
+    <t>MTs NAHDLATUL ARIFIN</t>
+  </si>
+  <si>
+    <t>Jl.watu ulo kedungkaji sumberejo</t>
+  </si>
+  <si>
+    <t> 20581445</t>
+  </si>
+  <si>
+    <t>MTSS ADDIMYATHI</t>
+  </si>
+  <si>
+    <t>JL.R.PATAH NO.43 KRAJAN KARANGANYAR AMBULU JEMBER</t>
+  </si>
+  <si>
+    <t> 20581449</t>
+  </si>
+  <si>
+    <t>MTSS AL AMIEN</t>
+  </si>
+  <si>
+    <t>Jl. K. Masduqi Kebonsari</t>
+  </si>
+  <si>
+    <t> 20581444</t>
+  </si>
+  <si>
+    <t>MTSS DARUL HUDA</t>
+  </si>
+  <si>
+    <t>JL. KOTTA BLATER GANG MANGGA NO. 10 AMBULU</t>
+  </si>
+  <si>
+    <t> 20581448</t>
+  </si>
+  <si>
+    <t>MTSS MA`ARIF AL ISLAH</t>
+  </si>
+  <si>
+    <t>JL. WATU ULO NO. 08 SUMBEREJO</t>
+  </si>
+  <si>
+    <t> 20581446</t>
+  </si>
+  <si>
+    <t>MTSS MA`ARIF AMBULU</t>
+  </si>
+  <si>
+    <t>JL. KH. HASYIM ASYARI NO 4 LANGON AMBULU</t>
+  </si>
+  <si>
+    <t> 20581447</t>
+  </si>
+  <si>
+    <t>MTSS MIFTAHUL HUDA</t>
+  </si>
+  <si>
+    <t>JL PAYANGAN BREGOH SUMBEREJO AMBULU JEMBER</t>
+  </si>
+  <si>
+    <t> 20581450</t>
+  </si>
+  <si>
+    <t>MTSS SA BUSTANUT THOLABAH</t>
+  </si>
+  <si>
+    <t>JL. BRAWIJAYA NO. 15 PONTANG UTARA</t>
+  </si>
+  <si>
+    <t> 20523735</t>
+  </si>
+  <si>
+    <t>SMP 02 ISLAM 45</t>
+  </si>
+  <si>
+    <t>Jl. Watu Ulo No.112</t>
+  </si>
+  <si>
+    <t> 20523850</t>
+  </si>
+  <si>
+    <t>SMP 09 MAARIF NU AMBULU</t>
+  </si>
+  <si>
+    <t>Jl. Kamboja No 108</t>
+  </si>
+  <si>
+    <t> 20523791</t>
+  </si>
+  <si>
+    <t>SMP ISLAM AMBULU</t>
+  </si>
+  <si>
+    <t>Jalan Kedung Bunder No.64 Ambulu</t>
+  </si>
+  <si>
+    <t> 20523767</t>
+  </si>
+  <si>
+    <t>SMP KARTIKA IV-6 AMBULU</t>
+  </si>
+  <si>
+    <t>Jl. Suyitman No. 125 Ambulu</t>
+  </si>
+  <si>
+    <t> 20523935</t>
+  </si>
+  <si>
+    <t>SMP MUHAMMADIYAH 15 AMBULU</t>
+  </si>
+  <si>
+    <t>Jl. Candradimuka No.41 Ambulu Jember</t>
+  </si>
+  <si>
+    <t> 20523913</t>
+  </si>
+  <si>
+    <t>SMP MUHAMMADIYAH 9 WATUKEBO</t>
+  </si>
+  <si>
+    <t>Jl. Kotta Blater Km. 3 Watukebo,</t>
+  </si>
+  <si>
+    <t> 20554314</t>
+  </si>
+  <si>
+    <t>SMP PGRI AMBULU</t>
+  </si>
+  <si>
+    <t>Jl Semeru 148 Tegalsari</t>
+  </si>
+  <si>
+    <t> 20554201</t>
+  </si>
+  <si>
+    <t>SMP PLUS AL AMIEN</t>
+  </si>
+  <si>
+    <t>JL. K. Masduki No.1</t>
+  </si>
+  <si>
+    <t> 69959817</t>
+  </si>
+  <si>
+    <t>SMPS NURUSSALAM AMBULU</t>
+  </si>
+  <si>
+    <t>JL. Imam Syafii No. 07 Krajan Lor</t>
+  </si>
+  <si>
+    <t> 69968889</t>
+  </si>
+  <si>
+    <t>SMPS PLUS ISTIQOMAH</t>
+  </si>
+  <si>
+    <t>DUSUN PASUNDAN</t>
+  </si>
+  <si>
+    <t> 69956898</t>
+  </si>
+  <si>
+    <t>SMPS UNGGULAN ASTRA NAWA</t>
+  </si>
+  <si>
+    <t>Jl Payangan Sumberejo Ambulu</t>
+  </si>
+  <si>
+    <t> 20523949</t>
+  </si>
+  <si>
+    <t>Jln. Kotta Blater No. 05</t>
+  </si>
+  <si>
+    <t> 20523886</t>
+  </si>
+  <si>
+    <t>Jl. Watu Ulo No. 57</t>
+  </si>
+  <si>
+    <t> 20583911</t>
+  </si>
+  <si>
+    <t>Jalan Puger Gang I Sidomulyo</t>
+  </si>
+  <si>
+    <t> 69994801</t>
+  </si>
+  <si>
+    <t>MTs MAMBAUL HIDAYAH</t>
+  </si>
+  <si>
+    <t>Dusun Kebonsari Desa Tamansari</t>
+  </si>
+  <si>
+    <t> 20581617</t>
+  </si>
+  <si>
+    <t>MTSS ABBASIYYAH</t>
+  </si>
+  <si>
+    <t>JLN.PAHLAWAN GG.ABBAS WULUHAN JEMBER</t>
+  </si>
+  <si>
+    <t> 60727481</t>
+  </si>
+  <si>
+    <t>MTSS AL MAARIF</t>
+  </si>
+  <si>
+    <t>JL PAHLAWAN 127</t>
+  </si>
+  <si>
+    <t> 20581616</t>
+  </si>
+  <si>
+    <t>MTSS DARUL HIDAYAH</t>
+  </si>
+  <si>
+    <t>Jl. Sunan Bonang Pomo</t>
+  </si>
+  <si>
+    <t> 20581619</t>
+  </si>
+  <si>
+    <t>MTSS MA`ARIF ANNUR</t>
+  </si>
+  <si>
+    <t>JL. KI HAJAR DEWANTARA NO. 70</t>
+  </si>
+  <si>
+    <t> 20581621</t>
+  </si>
+  <si>
+    <t>MTSS NAHDLATUTH THALABAH</t>
+  </si>
+  <si>
+    <t>JL. KH. IMAM BUKHORI KESILIR WULUHAN JEMBER</t>
+  </si>
+  <si>
+    <t> 20581618</t>
+  </si>
+  <si>
+    <t>MTSS NURUL ISLAM WULUHAN</t>
+  </si>
+  <si>
+    <t>JL. PB. SUDIRMAN NO. 133</t>
+  </si>
+  <si>
+    <t> 60728765</t>
+  </si>
+  <si>
+    <t>MTSS SA AL FALAH</t>
+  </si>
+  <si>
+    <t>JL. H. SHOLIH NO. 01 KEPEL</t>
+  </si>
+  <si>
+    <t> 20581620</t>
+  </si>
+  <si>
+    <t>MTSS SA TAHSINUL KHULUQ</t>
+  </si>
+  <si>
+    <t>JL.PASAR KESILIR NO.12 KESILIR WULUHAN JEMBER</t>
+  </si>
+  <si>
+    <t> 20523737</t>
+  </si>
+  <si>
+    <t>SMP 06 DIPONEGORO</t>
+  </si>
+  <si>
+    <t>Jl. Pahlawan No 127 Wuluhan - Jember</t>
+  </si>
+  <si>
+    <t> 20523782</t>
+  </si>
+  <si>
+    <t>SMP BUSTANUL ULUM</t>
+  </si>
+  <si>
+    <t>Jl. Seruni 03</t>
+  </si>
+  <si>
+    <t> 20523784</t>
+  </si>
+  <si>
+    <t>SMP DAERAH</t>
+  </si>
+  <si>
+    <t>Jl Ki Hajar Dewantoro No.18</t>
+  </si>
+  <si>
+    <t> 20523933</t>
+  </si>
+  <si>
+    <t>SMP MUHAMMADIYAH 11 WULUHAN</t>
+  </si>
+  <si>
+    <t>Jl. Pahlawan No. 303</t>
+  </si>
+  <si>
+    <t> 20523911</t>
+  </si>
+  <si>
+    <t>SMP MUHAMMADIYAH 6 WULUHAN</t>
+  </si>
+  <si>
+    <t>Jl. Ambulu No. 5</t>
+  </si>
+  <si>
+    <t> 20523912</t>
+  </si>
+  <si>
+    <t>SMP MUHAMMADIYAH 7 WULUHAN</t>
+  </si>
+  <si>
+    <t>Jl. A. Yani No 42 Tamansari Wuluhan</t>
+  </si>
+  <si>
+    <t> 20523955</t>
+  </si>
+  <si>
+    <t>SMP PGRI KESILIR</t>
+  </si>
+  <si>
+    <t>Jl Ambulu No 10 Kesilir</t>
+  </si>
+  <si>
+    <t> 20555452</t>
+  </si>
+  <si>
+    <t>SMP PLUS DARUL HIKMAH II WULUHAN</t>
+  </si>
+  <si>
+    <t>Jl. Nogosari No, 04 Tanjungsari Glundengan Wuluhan</t>
+  </si>
+  <si>
+    <t> 20555397</t>
+  </si>
+  <si>
+    <t>SMP S NAHDLATUTH THALABAH</t>
+  </si>
+  <si>
+    <t>Jalan KH. Imam Bukhori</t>
+  </si>
+  <si>
+    <t> 20554329</t>
+  </si>
+  <si>
+    <t>SMPS 08 MAARIF AMPEL</t>
+  </si>
+  <si>
+    <t>Jl. Kh. Zuhdi Zain No. 197 Kepel</t>
+  </si>
+  <si>
+    <t> 69955458</t>
+  </si>
+  <si>
+    <t>SMPS AL - MUTHOHHIRIN</t>
+  </si>
+  <si>
+    <t>DESA KESILIR</t>
+  </si>
+  <si>
+    <t> 69958431</t>
+  </si>
+  <si>
+    <t>SMPS AL BUKHORI</t>
+  </si>
+  <si>
+    <t>JL. KH ABDUL KARIM NO. 18</t>
+  </si>
+  <si>
+    <t> 69827636</t>
+  </si>
+  <si>
+    <t>SMPS AL HIDAYAH</t>
+  </si>
+  <si>
+    <t>JL PESANTREN 10</t>
+  </si>
+  <si>
+    <t> 70007655</t>
+  </si>
+  <si>
+    <t>SMPS DARUL MUTTAQIEN</t>
+  </si>
+  <si>
+    <t>Jl. Sulawesi No. 08 Dusun Purwojati RT 001 RW 012</t>
+  </si>
+  <si>
+    <t> 69956793</t>
+  </si>
+  <si>
+    <t>SMPS DARUNNAJAH</t>
+  </si>
+  <si>
+    <t>DUSUN KRAJAN WETAN</t>
+  </si>
+  <si>
+    <t> 20571628</t>
+  </si>
+  <si>
+    <t>SMPS Islam Terpadu Ibnu Sina Wuluhan</t>
+  </si>
+  <si>
+    <t>Wuluhan</t>
+  </si>
+  <si>
+    <t> 69968458</t>
+  </si>
+  <si>
+    <t>SMPS NURUS SALAM WULUHAN</t>
+  </si>
+  <si>
+    <t>DUSUN TAMAN REJO RT/RW 02/02</t>
+  </si>
+  <si>
+    <t> 20523956</t>
+  </si>
+  <si>
+    <t>SMPS PGRI LOJEJER</t>
+  </si>
+  <si>
+    <t>Jl.Puskesmas No.02</t>
+  </si>
+  <si>
+    <t> 69990043</t>
+  </si>
+  <si>
+    <t>SMPS UNGGULAN AL HIKMAH</t>
+  </si>
+  <si>
+    <t>JL. KENANGA NO 33-35</t>
+  </si>
+  <si>
+    <t> 20523882</t>
+  </si>
+  <si>
+    <t>Jl. Puger No. 290 Ampel Wuluhan</t>
+  </si>
+  <si>
+    <t> 20523889</t>
+  </si>
+  <si>
+    <t>Jl. Kemuningsari Kidul 157</t>
+  </si>
+  <si>
+    <t> 69995127</t>
+  </si>
+  <si>
+    <t>MTs TAHFIDHUL QURAN NURUSSALAM</t>
+  </si>
+  <si>
+    <t>Jalan Majapahit Gang V</t>
+  </si>
+  <si>
+    <t> 20581609</t>
+  </si>
+  <si>
+    <t>MTSS BAITUL HIKMAH</t>
+  </si>
+  <si>
+    <t>JL. CUT NYA`DIEN NO. 2 TEMPUREJO</t>
+  </si>
+  <si>
+    <t> 20581611</t>
+  </si>
+  <si>
+    <t>MTSS HIDAYATUL MUBTADIIN</t>
+  </si>
+  <si>
+    <t>JL. KOTTA BLATER GG.III/160 SIDODADI</t>
+  </si>
+  <si>
+    <t> 20581610</t>
+  </si>
+  <si>
+    <t>MTSS MIFTAHUL ULUM</t>
+  </si>
+  <si>
+    <t>JL.MARZUKI ZAENAB NO.205 CURAH TAKIR TEMPUREJO JEMBER</t>
+  </si>
+  <si>
+    <t> 69883323</t>
+  </si>
+  <si>
+    <t>MTSS MIFTAHUL ULUM AT TAUFIQ</t>
+  </si>
+  <si>
+    <t>Jl. KH. Syamsul Arifin</t>
+  </si>
+  <si>
+    <t> 20581612</t>
+  </si>
+  <si>
+    <t>MTSS SA MIFTAHUL ULUM AL-KHAIRIYAH</t>
+  </si>
+  <si>
+    <t>JL. KH. ABD. AZIS NO. 66 DUSUN KAUMAN</t>
+  </si>
+  <si>
+    <t> 70008580</t>
+  </si>
+  <si>
+    <t>MTSS UNGGULAN INAYATUR ROHMAN</t>
+  </si>
+  <si>
+    <t>JL. MENUR 68 DUSUN KRAJAN</t>
+  </si>
+  <si>
+    <t> 20523738</t>
+  </si>
+  <si>
+    <t>SMP 07 MAARIF PERINTIS</t>
+  </si>
+  <si>
+    <t>Jl.kh.abd.rahman No.31</t>
+  </si>
+  <si>
+    <t> 20523775</t>
+  </si>
+  <si>
+    <t>SMP MAARIF 13 TEMPUREJO</t>
+  </si>
+  <si>
+    <t>Jl. Marzuki Zaenab No. 205</t>
+  </si>
+  <si>
+    <t> 20523917</t>
+  </si>
+  <si>
+    <t>SMP PGRI 1 TEMPUREJO</t>
+  </si>
+  <si>
+    <t>JL. Mojopahit No.58 Wonoasri</t>
+  </si>
+  <si>
+    <t> 20554183</t>
+  </si>
+  <si>
+    <t>SMP PGRI 3 TEMPUREJO</t>
+  </si>
+  <si>
+    <t>Jl Bandealit No 5</t>
+  </si>
+  <si>
+    <t> 20568296</t>
+  </si>
+  <si>
+    <t>SMP Plus Al Munawaroh</t>
+  </si>
+  <si>
+    <t>Jln. Mojopahit Gang 2 No. 139 Kraton</t>
+  </si>
+  <si>
+    <t> 20523919</t>
+  </si>
+  <si>
+    <t>SMP S PGRI 2 TEMPUREJO</t>
+  </si>
+  <si>
+    <t>Jl. PB. SUDIRMAN NO. 133</t>
+  </si>
+  <si>
+    <t> 69889043</t>
+  </si>
+  <si>
+    <t>SMPS AL MAUFI TEMPUREJO</t>
+  </si>
+  <si>
+    <t>JL KH ABD QUDDUS NO 105,DUSUN JATIREJO</t>
+  </si>
+  <si>
+    <t> 20523852</t>
+  </si>
+  <si>
+    <t>Jl Padang Golf No. 2 Glantangan</t>
+  </si>
+  <si>
+    <t> 20523897</t>
+  </si>
+  <si>
+    <t>Jl. Sultan Agung 78 Sanenrejo</t>
+  </si>
+  <si>
+    <t> 20548793</t>
+  </si>
+  <si>
+    <t>Jl. Bandealit No. 31 Kalicawang</t>
+  </si>
+  <si>
+    <t> 20583906</t>
+  </si>
+  <si>
+    <t>JL CANGAK INDAH NO 81 AFD. TERATE PTPN XII KEBUN KOTTA BLATER</t>
+  </si>
+  <si>
+    <t> 69977757</t>
+  </si>
+  <si>
+    <t>MTS AR RIYADH</t>
+  </si>
+  <si>
+    <t>KRAJAN SELATAN KERTONEGORO JENGGAWAH JEMBER</t>
+  </si>
+  <si>
+    <t> 60728767</t>
+  </si>
+  <si>
+    <t>MTS DARUL HIKAM</t>
+  </si>
+  <si>
+    <t>JL. KEMBANG SORE No 87</t>
+  </si>
+  <si>
+    <t> 20581482</t>
+  </si>
+  <si>
+    <t>MTSS AL - ISHLAH</t>
+  </si>
+  <si>
+    <t>JL. MATARAM NO. 7 RT. 18 RW. 02</t>
+  </si>
+  <si>
+    <t> 20581486</t>
+  </si>
+  <si>
+    <t>MTSS AL HAMIDI</t>
+  </si>
+  <si>
+    <t>JLN. KOTTA BLATER GG. V NO. 6 CURAHREJO CANGKRING</t>
+  </si>
+  <si>
+    <t> 20581481</t>
+  </si>
+  <si>
+    <t>MTSS AR - RAUDLAH</t>
+  </si>
+  <si>
+    <t>JL. WALISONGO NO. 05 SUKOSARI</t>
+  </si>
+  <si>
+    <t> 60728611</t>
+  </si>
+  <si>
+    <t>MTSS AS SHOBIER</t>
+  </si>
+  <si>
+    <t>JL TEMPUREJO NO. 54</t>
+  </si>
+  <si>
+    <t> 20581488</t>
+  </si>
+  <si>
+    <t>MTSS DARUSSALAM SRUNI</t>
+  </si>
+  <si>
+    <t>JL. K. KHUSNAN NO 4 SRUNI JENGGAWAH</t>
+  </si>
+  <si>
+    <t> 60728766</t>
+  </si>
+  <si>
+    <t>MTSS MA`ARIF NU JENGGAWAH</t>
+  </si>
+  <si>
+    <t>JL. KH. WAHID HASYIM NO 18</t>
+  </si>
+  <si>
+    <t> 20581485</t>
+  </si>
+  <si>
+    <t>MTSS MAFTAHUL HUDA</t>
+  </si>
+  <si>
+    <t>JL.SAHARA NO. 05 KERTONEGORO</t>
+  </si>
+  <si>
+    <t> 20581483</t>
+  </si>
+  <si>
+    <t>MTSS MAMBAUL ULUM</t>
+  </si>
+  <si>
+    <t>JL. TEMPUREJO NO. 27</t>
+  </si>
+  <si>
+    <t> 20581489</t>
+  </si>
+  <si>
+    <t>MTSS SYIRKAH SALAFIYAH</t>
+  </si>
+  <si>
+    <t>JL. A. YANI 164 PONDOKLALANG WONOJATI JENGGAWAH</t>
+  </si>
+  <si>
+    <t> 20581484</t>
+  </si>
+  <si>
+    <t>MTSS TARBIYATUL HUDA</t>
+  </si>
+  <si>
+    <t>JL. KARTINI NO. 57 KEMUNINGSARI KIDUL JENGGAWAH - JEMBER</t>
+  </si>
+  <si>
+    <t> 20581487</t>
+  </si>
+  <si>
+    <t>MTSS WAHID HASYIM</t>
+  </si>
+  <si>
+    <t>JL. KOTTA BLATER NO. 77 DARUSSALAM JATIMULYO JENGGAWAH JEMBER</t>
+  </si>
+  <si>
+    <t> 20523944</t>
+  </si>
+  <si>
+    <t>SMP LAB JENGGAWAH</t>
+  </si>
+  <si>
+    <t>Jl. Diponegoro No. 3</t>
+  </si>
+  <si>
+    <t> 20554185</t>
+  </si>
+  <si>
+    <t>SMP ISLAM DAERAH JENGGAWAH</t>
+  </si>
+  <si>
+    <t>Jl. PERUMNAS Wonojati 133 Jenggawah Jember</t>
+  </si>
+  <si>
+    <t> 20523766</t>
+  </si>
+  <si>
+    <t>SMP ISLAM WALISONGO JENGGAWAH</t>
+  </si>
+  <si>
+    <t>Jl. Raya Ambulu No.65 Kertonegoro Jenggawah</t>
+  </si>
+  <si>
+    <t> 20554190</t>
+  </si>
+  <si>
+    <t>SMP MADINATUL ULUM</t>
+  </si>
+  <si>
+    <t>Jl. Tempurejo No 20 - 24 Cangkring</t>
+  </si>
+  <si>
+    <t> 20523938</t>
+  </si>
+  <si>
+    <t>SMP PGRI JENGGAWAH</t>
+  </si>
+  <si>
+    <t>Jl. Raya Kawi</t>
+  </si>
+  <si>
+    <t> 20554199</t>
+  </si>
+  <si>
+    <t>SMP PLUS ASRAMA PEMBINA MASYARAKAT</t>
+  </si>
+  <si>
+    <t>Jl.Dewi Sartika No.50 Darussalam Jatimulyo</t>
+  </si>
+  <si>
+    <t> 20554195</t>
+  </si>
+  <si>
+    <t>SMP PLUS DARUL HIKMAH</t>
+  </si>
+  <si>
+    <t>Cangkring Baru Jenggawah Jember Jatim</t>
+  </si>
+  <si>
+    <t> 20554184</t>
+  </si>
+  <si>
+    <t>SMP SALAFIYAH MIFTAHUL HUDA</t>
+  </si>
+  <si>
+    <t>Jl. Kh Abdurrahman</t>
+  </si>
+  <si>
+    <t> 69888400</t>
+  </si>
+  <si>
+    <t>SMPS AL BAITUR ROHIM</t>
+  </si>
+  <si>
+    <t>DUSUN CURAH BUNTU</t>
+  </si>
+  <si>
+    <t> 20549712</t>
+  </si>
+  <si>
+    <t>SMPS PLUS RAUDLATUT THOLABAH JENGGAWAH</t>
+  </si>
+  <si>
+    <t>Jl. Balung Kebonsadeng</t>
+  </si>
+  <si>
+    <t> 20523866</t>
+  </si>
+  <si>
+    <t>Jl. Tempurejo No. 63 Jenggawah</t>
+  </si>
+  <si>
+    <t> 20558461</t>
+  </si>
+  <si>
+    <t>Jl. Flamboyan</t>
+  </si>
+  <si>
+    <t> 20581443</t>
+  </si>
+  <si>
+    <t>MTSS AL - AZHAR</t>
+  </si>
+  <si>
+    <t>JL. RAUNG GG. AL-AZHAR GUMUK KERANG</t>
+  </si>
+  <si>
+    <t> 69941489</t>
+  </si>
+  <si>
+    <t>MTSS AL - BAROKAH AN - NUR</t>
+  </si>
+  <si>
+    <t>Jl. Raung Klanceng Timur</t>
+  </si>
+  <si>
+    <t> 20581441</t>
+  </si>
+  <si>
+    <t>MTSS AL FALAH</t>
+  </si>
+  <si>
+    <t>JL.ARGUPURO 28 DURENAN AJUNG</t>
+  </si>
+  <si>
+    <t>Klompangan</t>
+  </si>
+  <si>
+    <t> 20581442</t>
+  </si>
+  <si>
+    <t>MTSS AR-RIDLWAN PONPES DARUL ULUM</t>
+  </si>
+  <si>
+    <t>JL. MH. THAMRIN NO. 140 AJUNG</t>
+  </si>
+  <si>
+    <t> 20581439</t>
+  </si>
+  <si>
+    <t>MTSS DARUN NAJAH</t>
+  </si>
+  <si>
+    <t>JL H.MOH NOER 63 ROWOINDAH - AJUNG</t>
+  </si>
+  <si>
+    <t> 20581440</t>
+  </si>
+  <si>
+    <t>MTSS FATHUS SALAFI</t>
+  </si>
+  <si>
+    <t>JL. MOH. THOHIR 48 LIMBUNGSARI AJUNG</t>
+  </si>
+  <si>
+    <t> 20581435</t>
+  </si>
+  <si>
+    <t>JL. PONPES SALAFIYAH CURAHKATES KLOMPANGAN AJUNG JEMBER</t>
+  </si>
+  <si>
+    <t> 20581437</t>
+  </si>
+  <si>
+    <t>JL. R.S. PRAWIRO 01 WIROWONGSO</t>
+  </si>
+  <si>
+    <t> 20581438</t>
+  </si>
+  <si>
+    <t>PONDOKLABU KLOMPANGAN AJUNG</t>
+  </si>
+  <si>
+    <t> 20581436</t>
+  </si>
+  <si>
+    <t>MTSS TRIBAKTI</t>
+  </si>
+  <si>
+    <t>JL.SEMERU NO.36 AJUNG JEMBER</t>
+  </si>
+  <si>
+    <t> 20567109</t>
+  </si>
+  <si>
+    <t>SMP ADZ DZIKIR</t>
+  </si>
+  <si>
+    <t>Jl. Yos Sudarso No. 08 Rowo Indah</t>
+  </si>
+  <si>
+    <t> 69758985</t>
+  </si>
+  <si>
+    <t>SMP AINUL YAQIN</t>
+  </si>
+  <si>
+    <t>Jl. Ottista No. 13 Dusun Klanceng Ajung</t>
+  </si>
+  <si>
+    <t> 20574490</t>
+  </si>
+  <si>
+    <t>SMP Islam Alhikmah</t>
+  </si>
+  <si>
+    <t>Jl. PTPN X No. 83 Sumuran</t>
+  </si>
+  <si>
+    <t> 20549655</t>
+  </si>
+  <si>
+    <t>SMP PLUS AL ISLAH</t>
+  </si>
+  <si>
+    <t>Jl PTP Nusantara XII No 03 Curah Kendal</t>
+  </si>
+  <si>
+    <t> 20555468</t>
+  </si>
+  <si>
+    <t>SMP PLUS SUNAN DRAJAT</t>
+  </si>
+  <si>
+    <t>Jl.sunan Drajat No.9</t>
+  </si>
+  <si>
+    <t> 20567112</t>
+  </si>
+  <si>
+    <t>SMP PLUS ZAINUL ULUM</t>
+  </si>
+  <si>
+    <t> 69980128</t>
+  </si>
+  <si>
+    <t>SMPS DARUSSA`ADAH</t>
+  </si>
+  <si>
+    <t>JL. R.S PRAWIRO</t>
+  </si>
+  <si>
+    <t> 69733856</t>
+  </si>
+  <si>
+    <t>SMPS NURUL ULUM</t>
+  </si>
+  <si>
+    <t>Jl. RS. Prawiro No.1A Ajung</t>
+  </si>
+  <si>
+    <t> 69980381</t>
+  </si>
+  <si>
+    <t>SMPS PLUS ROYATUL ISLAM</t>
+  </si>
+  <si>
+    <t>JL. K.H. ZAINUDIN</t>
+  </si>
+  <si>
+    <t> 20523953</t>
+  </si>
+  <si>
+    <t>SMPS PLUS WALISONGO</t>
+  </si>
+  <si>
+    <t>Jl. Curah Udang No. 5 Jember</t>
+  </si>
+  <si>
+    <t> 69931821</t>
+  </si>
+  <si>
+    <t>SMPS SALAFIYAH SYAFI IYAH</t>
+  </si>
+  <si>
+    <t>JL. CENDRAWASIH NO. 39</t>
+  </si>
+  <si>
+    <t> 20523858</t>
+  </si>
+  <si>
+    <t>Jl. Semeru 141 Pancakarya</t>
+  </si>
+  <si>
+    <t> 20549893</t>
+  </si>
+  <si>
+    <t>Jl. Nusa Indah No 100</t>
+  </si>
+  <si>
+    <t>SMPN 1 AJUNG</t>
+  </si>
+  <si>
+    <t>SMPN 1 AMBULU</t>
+  </si>
+  <si>
+    <t>SMPN 1 JENGGAWAH</t>
+  </si>
+  <si>
+    <t>SMPN 1 TEMPUREJO</t>
+  </si>
+  <si>
+    <t>SMPN 1 WULUHAN</t>
+  </si>
+  <si>
+    <t>SMPN 2 AJUNG</t>
+  </si>
+  <si>
+    <t>SMPN 2 AMBULU</t>
+  </si>
+  <si>
+    <t>SMPN 2 JENGGAWAH</t>
+  </si>
+  <si>
+    <t>SMPN 2 TEMPUREJO</t>
+  </si>
+  <si>
+    <t>SMPN 2 WULUHAN</t>
+  </si>
+  <si>
+    <t>SMPN 3 AMBULU</t>
+  </si>
+  <si>
+    <t>SMPN 3 TEMPUREJO</t>
+  </si>
+  <si>
+    <t>SMPN 4 TEMPUREJO</t>
+  </si>
+  <si>
+    <t>DAFTAR NAMA SMP DAN MTs DI JEMBER</t>
   </si>
 </sst>
 </file>
@@ -89,8 +1124,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,90 +1409,1348 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:B12"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="C4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="C5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="C8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>277</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="C11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>280</v>
+      </c>
+      <c r="B12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
-        <v>1</v>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>283</v>
+      </c>
+      <c r="B15" t="s">
+        <v>284</v>
+      </c>
+      <c r="C15" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>216</v>
+      </c>
+      <c r="B18" t="s">
+        <v>217</v>
+      </c>
+      <c r="C18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>287</v>
+      </c>
+      <c r="B19" t="s">
+        <v>288</v>
+      </c>
+      <c r="C19" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>219</v>
+      </c>
+      <c r="B20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>290</v>
+      </c>
+      <c r="B24" t="s">
+        <v>291</v>
+      </c>
+      <c r="C24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B25" t="s">
+        <v>223</v>
+      </c>
+      <c r="C25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>293</v>
+      </c>
+      <c r="B26" t="s">
+        <v>294</v>
+      </c>
+      <c r="C26" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>225</v>
+      </c>
+      <c r="B31" t="s">
+        <v>226</v>
+      </c>
+      <c r="C31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>228</v>
+      </c>
+      <c r="B32" t="s">
+        <v>229</v>
+      </c>
+      <c r="C32" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>231</v>
+      </c>
+      <c r="B33" t="s">
+        <v>232</v>
+      </c>
+      <c r="C33" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>296</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>298</v>
+      </c>
+      <c r="B36" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>300</v>
+      </c>
+      <c r="B37" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>163</v>
+      </c>
+      <c r="B38" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>166</v>
+      </c>
+      <c r="B39" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>169</v>
+      </c>
+      <c r="B44" t="s">
+        <v>170</v>
+      </c>
+      <c r="C44" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>234</v>
+      </c>
+      <c r="B46" t="s">
+        <v>235</v>
+      </c>
+      <c r="C46" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B47" t="s">
+        <v>238</v>
+      </c>
+      <c r="C47" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>302</v>
+      </c>
+      <c r="B48" t="s">
+        <v>303</v>
+      </c>
+      <c r="C48" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>172</v>
+      </c>
+      <c r="B49" t="s">
+        <v>173</v>
+      </c>
+      <c r="C49" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>240</v>
+      </c>
+      <c r="B50" t="s">
+        <v>241</v>
+      </c>
+      <c r="C50" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>175</v>
+      </c>
+      <c r="B53" t="s">
+        <v>176</v>
+      </c>
+      <c r="C53" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>305</v>
+      </c>
+      <c r="B55" t="s">
+        <v>306</v>
+      </c>
+      <c r="C55" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>308</v>
+      </c>
+      <c r="B56" t="s">
+        <v>309</v>
+      </c>
+      <c r="C56" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>311</v>
+      </c>
+      <c r="B59" t="s">
+        <v>312</v>
+      </c>
+      <c r="C59" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>246</v>
+      </c>
+      <c r="B61" t="s">
+        <v>247</v>
+      </c>
+      <c r="C61" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>249</v>
+      </c>
+      <c r="B62" t="s">
+        <v>250</v>
+      </c>
+      <c r="C62" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>243</v>
+      </c>
+      <c r="B64" t="s">
+        <v>244</v>
+      </c>
+      <c r="C64" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>178</v>
+      </c>
+      <c r="B65" t="s">
+        <v>179</v>
+      </c>
+      <c r="C65" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>252</v>
+      </c>
+      <c r="B66" t="s">
+        <v>253</v>
+      </c>
+      <c r="C66" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>102</v>
+      </c>
+      <c r="B67" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>39</v>
+      </c>
+      <c r="B68" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>105</v>
+      </c>
+      <c r="B69" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70" t="s">
+        <v>109</v>
+      </c>
+      <c r="C70" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>42</v>
+      </c>
+      <c r="B71" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>181</v>
+      </c>
+      <c r="B72" t="s">
+        <v>182</v>
+      </c>
+      <c r="C72" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>184</v>
+      </c>
+      <c r="B73" t="s">
+        <v>185</v>
+      </c>
+      <c r="C73" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>45</v>
+      </c>
+      <c r="B74" t="s">
+        <v>46</v>
+      </c>
+      <c r="C74" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>255</v>
+      </c>
+      <c r="B75" t="s">
+        <v>256</v>
+      </c>
+      <c r="C75" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>111</v>
+      </c>
+      <c r="B76" t="s">
+        <v>112</v>
+      </c>
+      <c r="C76" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>48</v>
+      </c>
+      <c r="B77" t="s">
+        <v>49</v>
+      </c>
+      <c r="C77" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>314</v>
+      </c>
+      <c r="B78" t="s">
+        <v>315</v>
+      </c>
+      <c r="C78" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>187</v>
+      </c>
+      <c r="B79" t="s">
+        <v>188</v>
+      </c>
+      <c r="C79" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>258</v>
+      </c>
+      <c r="B80" t="s">
+        <v>259</v>
+      </c>
+      <c r="C80" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>261</v>
+      </c>
+      <c r="B81" t="s">
+        <v>262</v>
+      </c>
+      <c r="C81" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>114</v>
+      </c>
+      <c r="B82" t="s">
+        <v>115</v>
+      </c>
+      <c r="C82" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>317</v>
+      </c>
+      <c r="B83" t="s">
+        <v>318</v>
+      </c>
+      <c r="C83" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>320</v>
+      </c>
+      <c r="B84" t="s">
+        <v>321</v>
+      </c>
+      <c r="C84" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>117</v>
+      </c>
+      <c r="B85" t="s">
+        <v>118</v>
+      </c>
+      <c r="C85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>190</v>
+      </c>
+      <c r="B86" t="s">
+        <v>191</v>
+      </c>
+      <c r="C86" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>264</v>
+      </c>
+      <c r="B87" t="s">
+        <v>265</v>
+      </c>
+      <c r="C87" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>337</v>
+      </c>
+      <c r="B88" t="s">
+        <v>341</v>
+      </c>
+      <c r="C88" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>60</v>
+      </c>
+      <c r="B89" t="s">
+        <v>342</v>
+      </c>
+      <c r="C89" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>273</v>
+      </c>
+      <c r="B90" t="s">
+        <v>343</v>
+      </c>
+      <c r="C90" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>196</v>
+      </c>
+      <c r="B91" t="s">
+        <v>344</v>
+      </c>
+      <c r="C91" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>150</v>
+      </c>
+      <c r="B92" t="s">
+        <v>345</v>
+      </c>
+      <c r="C92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>339</v>
+      </c>
+      <c r="B93" t="s">
+        <v>346</v>
+      </c>
+      <c r="C93" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>62</v>
+      </c>
+      <c r="B94" t="s">
+        <v>347</v>
+      </c>
+      <c r="C94" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>275</v>
+      </c>
+      <c r="B95" t="s">
+        <v>348</v>
+      </c>
+      <c r="C95" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>198</v>
+      </c>
+      <c r="B96" t="s">
+        <v>349</v>
+      </c>
+      <c r="C96" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>152</v>
+      </c>
+      <c r="B97" t="s">
+        <v>350</v>
+      </c>
+      <c r="C97" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>64</v>
+      </c>
+      <c r="B98" t="s">
+        <v>351</v>
+      </c>
+      <c r="C98" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>200</v>
+      </c>
+      <c r="B99" t="s">
+        <v>352</v>
+      </c>
+      <c r="C99" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>202</v>
+      </c>
+      <c r="B100" t="s">
+        <v>353</v>
+      </c>
+      <c r="C100" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>120</v>
+      </c>
+      <c r="B101" t="s">
+        <v>121</v>
+      </c>
+      <c r="C101" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>123</v>
+      </c>
+      <c r="B102" t="s">
+        <v>124</v>
+      </c>
+      <c r="C102" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>267</v>
+      </c>
+      <c r="B103" t="s">
+        <v>268</v>
+      </c>
+      <c r="C103" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>126</v>
+      </c>
+      <c r="B104" t="s">
+        <v>127</v>
+      </c>
+      <c r="C104" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>129</v>
+      </c>
+      <c r="B105" t="s">
+        <v>130</v>
+      </c>
+      <c r="C105" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>193</v>
+      </c>
+      <c r="B106" t="s">
+        <v>194</v>
+      </c>
+      <c r="C106" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>132</v>
+      </c>
+      <c r="B107" t="s">
+        <v>133</v>
+      </c>
+      <c r="C107" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>135</v>
+      </c>
+      <c r="B108" t="s">
+        <v>136</v>
+      </c>
+      <c r="C108" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>322</v>
+      </c>
+      <c r="B109" t="s">
+        <v>323</v>
+      </c>
+      <c r="C109" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>138</v>
+      </c>
+      <c r="B110" t="s">
+        <v>139</v>
+      </c>
+      <c r="C110" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>325</v>
+      </c>
+      <c r="B111" t="s">
+        <v>326</v>
+      </c>
+      <c r="C111" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>141</v>
+      </c>
+      <c r="B112" t="s">
+        <v>142</v>
+      </c>
+      <c r="C112" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>51</v>
+      </c>
+      <c r="B113" t="s">
+        <v>52</v>
+      </c>
+      <c r="C113" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>144</v>
+      </c>
+      <c r="B114" t="s">
+        <v>145</v>
+      </c>
+      <c r="C114" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>54</v>
+      </c>
+      <c r="B115" t="s">
+        <v>55</v>
+      </c>
+      <c r="C115" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>270</v>
+      </c>
+      <c r="B116" t="s">
+        <v>271</v>
+      </c>
+      <c r="C116" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>328</v>
+      </c>
+      <c r="B117" t="s">
+        <v>329</v>
+      </c>
+      <c r="C117" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>331</v>
+      </c>
+      <c r="B118" t="s">
+        <v>332</v>
+      </c>
+      <c r="C118" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>334</v>
+      </c>
+      <c r="B119" t="s">
+        <v>335</v>
+      </c>
+      <c r="C119" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>147</v>
+      </c>
+      <c r="B120" t="s">
+        <v>148</v>
+      </c>
+      <c r="C120" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>57</v>
+      </c>
+      <c r="B121" t="s">
+        <v>58</v>
+      </c>
+      <c r="C121" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A4:C121">
+    <sortCondition ref="B4"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>